--- a/trunk/toolbox_data/species/planktongroups_user.xlsx
+++ b/trunk/toolbox_data/species/planktongroups_user.xlsx
@@ -19,20 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t>Unicell</t>
   </si>
   <si>
-    <t>Unidentified coccoid eukaryots</t>
-  </si>
-  <si>
     <t>Flagellates</t>
   </si>
   <si>
-    <t>Unidentified flagellated eukaryots</t>
-  </si>
-  <si>
     <t>Cyanobacteria</t>
   </si>
   <si>
@@ -154,6 +148,15 @@
   </si>
   <si>
     <t xml:space="preserve">No rank, checks scientific name only. </t>
+  </si>
+  <si>
+    <t>Flagellates phylum incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton phylum incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells phylum incertae sedis</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -566,16 +569,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -583,161 +586,150 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>37</v>
@@ -745,178 +737,222 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
